--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30510" windowHeight="6435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23115" windowHeight="6435"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordFramework" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -474,7 +474,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -485,7 +485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -500,7 +500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -515,7 +515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -530,11 +530,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
